--- a/Fase 2/Sprints/Sprint 2/Burndown Chart Sprint 2.xlsx
+++ b/Fase 2/Sprints/Sprint 2/Burndown Chart Sprint 2.xlsx
@@ -220,11 +220,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2063144228"/>
-        <c:axId val="466009111"/>
+        <c:axId val="1570652886"/>
+        <c:axId val="1047190839"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2063144228"/>
+        <c:axId val="1570652886"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -276,10 +276,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466009111"/>
+        <c:crossAx val="1047190839"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="466009111"/>
+        <c:axId val="1047190839"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -354,7 +354,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2063144228"/>
+        <c:crossAx val="1570652886"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
